--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,76 +55,76 @@
     <t>panic</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
   </si>
   <si>
     <t>nice</t>
@@ -658,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.967741935483871</v>
@@ -790,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -840,7 +840,7 @@
         <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.8983050847457628</v>
@@ -890,7 +890,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.8807339449541285</v>
@@ -940,7 +940,7 @@
         <v>450</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.8717948717948718</v>
@@ -969,28 +969,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.08024691358024691</v>
+        <v>0.005063291139240506</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="E8">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F8">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>149</v>
+        <v>2751</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.8125</v>
@@ -1015,32 +1015,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.005063291139240506</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>356</v>
-      </c>
-      <c r="E9">
-        <v>0.96</v>
-      </c>
-      <c r="F9">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2751</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.8110236220472441</v>
@@ -1066,7 +1042,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -1092,7 +1068,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.7872340425531915</v>
@@ -1118,7 +1094,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.7579617834394905</v>
@@ -1144,7 +1120,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.7301587301587301</v>
@@ -1170,7 +1146,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.6842105263157895</v>
@@ -1196,7 +1172,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.67</v>
@@ -1222,7 +1198,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.6666666666666666</v>
@@ -1248,7 +1224,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.6538461538461539</v>
@@ -1274,42 +1250,42 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6437768240343348</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L18">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6388888888888888</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,12 +1297,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.6176470588235294</v>
@@ -1352,7 +1328,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.6170212765957447</v>
@@ -1378,7 +1354,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.5714285714285714</v>
@@ -1404,7 +1380,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.5555555555555556</v>
@@ -1430,28 +1406,28 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5443425076452599</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L24">
         <v>178</v>
       </c>
       <c r="M24">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -2496,7 +2472,7 @@
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K65">
         <v>0.1105722599418041</v>
